--- a/BackLog ultima atualização (1).xlsx
+++ b/BackLog ultima atualização (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{843343A2-FDB9-404D-9CD7-B5215283498A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE3CC49F-047E-4746-B309-038A2287382C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9405" xr2:uid="{E6EAEA79-5C71-4D2E-8CB4-54361243CCBF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{E6EAEA79-5C71-4D2E-8CB4-54361243CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -145,18 +145,6 @@
   </si>
   <si>
     <t>Como usuário, quero uma revisão de todo trabalho com os código para tudo ficar funcional.</t>
-  </si>
-  <si>
-    <t>Como gestor, quero receber esboços de gráficos no Power BI para visualizar os dados de forma inicial.</t>
-  </si>
-  <si>
-    <t>Como analista, quero visualizar gráfico e desgin desenvolvidos com base nos dados de exportação.</t>
-  </si>
-  <si>
-    <t>Como gestor, quero obter gráficos que incluam  medidas de dispersão para realizar análises detalhadas.</t>
-  </si>
-  <si>
-    <t>Como tomador de decisões, quero gráficos com dados revisados e finalizados construídos no Power BI para uma boa confiabilidade.</t>
   </si>
   <si>
     <t>Como usuário, quero tabelas bem estruturadas e finalizadas para uma melhor facilidade na interpretação de dados no Phyton.</t>
@@ -319,6 +307,18 @@
   </si>
   <si>
     <t>Melhora no sistema de filtro no power bi</t>
+  </si>
+  <si>
+    <t>Como analista, quero visualizar gráficos de linhas e desgin desenvolvidos no canvas com base nos dados de exportação.</t>
+  </si>
+  <si>
+    <t>Como gestor, quero obter gráficos de colunas no canvas que incluam  medidas de dispersão para realizar análises detalhadas.</t>
+  </si>
+  <si>
+    <t>Como tomador de decisões, quero os gráficos realizados no Canva e no Power BI revisados e finalizados construídos para uma boa confiabilidade.</t>
+  </si>
+  <si>
+    <t>Como gestor, quero receber esboços de gráficos de colunas empilhadas referentes ao total de exportações de cada município do estado de São Paulo no Power BI para visualizar os dados de forma inicial.</t>
   </si>
 </sst>
 </file>
@@ -3449,14 +3449,14 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="137.85546875" customWidth="1"/>
+    <col min="3" max="3" width="190.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="8" max="8" width="47.140625" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" customWidth="1"/>
@@ -3501,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2" s="37">
         <v>7</v>
@@ -3528,7 +3528,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" s="42">
         <v>5</v>
@@ -3555,7 +3555,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" s="44">
         <v>4</v>
@@ -3582,7 +3582,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5" s="48">
         <v>6</v>
@@ -3636,7 +3636,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D7" s="53">
         <v>2</v>
@@ -3661,7 +3661,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D8" s="56">
         <v>2</v>
@@ -3686,7 +3686,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D9" s="53">
         <v>3</v>
@@ -3711,7 +3711,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D10" s="56">
         <v>2</v>
@@ -3734,7 +3734,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11" s="60">
         <v>2</v>
@@ -3759,7 +3759,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D12" s="63">
         <v>2</v>
@@ -3786,7 +3786,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="63">
         <v>2</v>
@@ -3813,7 +3813,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D14" s="87">
         <v>2</v>
@@ -3840,7 +3840,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" s="63">
         <v>3</v>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>16</v>
@@ -3867,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="60">
         <v>2</v>
@@ -3894,7 +3894,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17" s="68">
         <v>1</v>
@@ -3921,7 +3921,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" s="74">
         <v>2</v>
@@ -3943,7 +3943,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D19" s="80">
         <v>1</v>
@@ -4044,7 +4044,782 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
+        <control shapeId="1056" r:id="rId4" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId4" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId6" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId6" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId7" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId7" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId8" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId8" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId9" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId9" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId10" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId10" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId11" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId11" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId12" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId12" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId13" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId13" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId14" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId14" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId15" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId15" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId16" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId16" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId17" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId17" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId18" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId18" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId19" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId19" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId20" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId20" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId21" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId21" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId22" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId22" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId23" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId23" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId24" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId24" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId25" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId25" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId26" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId26" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId27" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId27" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId28" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId28" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId29" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId29" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId30" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId30" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId31" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId31" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId32" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId32" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId33" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId33" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId34" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId34" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId35" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId35" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId36" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4064,782 +4839,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId7" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId9" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId9" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId10" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId10" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId11" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId11" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId12" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId12" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId13" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId13" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId14" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId14" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId15" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId15" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId16" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId16" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId17" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId17" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId18" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId18" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId19" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId19" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId20" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId20" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId21" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId21" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId22" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId22" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId23" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId23" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId24" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId24" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId25" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId25" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId26" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId26" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId27" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId27" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId28" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId28" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId29" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId29" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId30" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId30" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId31" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId31" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId32" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId32" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId33" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId33" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId34" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId34" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId35" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId35" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId36" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId36" name="Control 32"/>
+        <control shapeId="1025" r:id="rId36" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
